--- a/WebApp/wwwroot/template/TemplateImportExpense.xlsx
+++ b/WebApp/wwwroot/template/TemplateImportExpense.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNVC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC9587-310D-4010-8022-B0BF6234F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3330" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Thông Tin Import </t>
   </si>
@@ -44,13 +43,34 @@
   </si>
   <si>
     <t xml:space="preserve"> Tên</t>
+  </si>
+  <si>
+    <t>Mã nhóm hoạt động</t>
+  </si>
+  <si>
+    <t>RB2025-I</t>
+  </si>
+  <si>
+    <t>In tờ rơi</t>
+  </si>
+  <si>
+    <t>Lên sóng truyền hình HTV2</t>
+  </si>
+  <si>
+    <t>Mã mục chi</t>
+  </si>
+  <si>
+    <t>MCRoi</t>
+  </si>
+  <si>
+    <t>HTV2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +109,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,32 +167,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,61 +473,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4624A2EF-AEDA-466B-A764-0A2DA3B3E26B}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$3:$B$199</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB4270-DD37-47BB-BDE4-B4D651A52F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -514,22 +555,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WebApp/wwwroot/template/TemplateImportExpense.xlsx
+++ b/WebApp/wwwroot/template/TemplateImportExpense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\OnGIT\CreditRequestSystem\WebApp\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Thông Tin Import </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>HTV2</t>
+  </si>
+  <si>
+    <t>Tiểu mục</t>
   </si>
 </sst>
 </file>
@@ -474,28 +477,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="38.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -505,11 +509,14 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -520,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -533,7 +540,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
